--- a/src/segment/results/matlab-gpu-cpu/matlab-gpu-cpu.xlsx
+++ b/src/segment/results/matlab-gpu-cpu/matlab-gpu-cpu.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1200" windowWidth="17235" windowHeight="6945" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="1440" yWindow="1200" windowWidth="17235" windowHeight="6945"/>
   </bookViews>
   <sheets>
-    <sheet name="seg-matlab-timing" sheetId="4" r:id="rId1"/>
-    <sheet name="seg-cpu-timing-value" sheetId="2" r:id="rId2"/>
-    <sheet name="seg-gpu-timing-value" sheetId="1" r:id="rId3"/>
-    <sheet name="seg-matlab-timing (2)" sheetId="5" r:id="rId4"/>
-    <sheet name="seg-cpu-timing-value (2)" sheetId="6" r:id="rId5"/>
-    <sheet name="seg-gpu-timing-value (2)" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet8 (2)" sheetId="10" r:id="rId1"/>
+    <sheet name="seg-matlab-timing" sheetId="4" r:id="rId2"/>
+    <sheet name="seg-cpu-timing-value" sheetId="2" r:id="rId3"/>
+    <sheet name="seg-gpu-timing-value" sheetId="1" r:id="rId4"/>
+    <sheet name="seg-matlab-timing (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="seg-cpu-timing-value (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="seg-gpu-timing-value (2)" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="66">
   <si>
     <t>seg-gpu-timing</t>
   </si>
@@ -764,6 +765,2469 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4185685491972652E-2"/>
+          <c:y val="2.5258854407904891E-2"/>
+          <c:w val="0.88792587469676687"/>
+          <c:h val="0.87574383202099737"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1  cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1615</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$3:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1  gpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1053</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$4:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 matlab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>57.222000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>439.81700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1032.5889999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5132.6559999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2268.9089999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>364.39700000000005</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000">
+                  <c:v>610.32399999999996</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>392.37200000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>367.21899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>80.388999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>77.293999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>33.677999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>1314.106</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>424.50300000000004</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>5455.2020000000002</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>85.402000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>393.38099999999997</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>363.755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2  cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$6:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2  gpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1562</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$7:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 matlab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>40.241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>327.68599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>661.548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9019999999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4807.2999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1126.0260000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.108999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>361.21100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000">
+                  <c:v>757.71</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>518.68099999999993</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>354.24599999999998</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>50.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>97.480999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>22.540999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>1271.1969999999999</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>401.6</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>6202.5870000000004</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>81.626000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>1146.308</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>349.12599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$8:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3  cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$8:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1149</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$9:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3  gpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$9:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$10:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 matlab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$10:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>40.710999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>277.20600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4724.5129999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3024.645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9089999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>331.904</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000">
+                  <c:v>516.51400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>359.94799999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>357.80899999999997</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>43.007999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>56.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>19.567999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>1244.23</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>392.44299999999998</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>5553.1790000000001</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>63.937999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>480.32900000000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>351.37800000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$11:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4  cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12313</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26556</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5740</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$12:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4  gpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12210</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5525</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$13:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 matlab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$13:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>40.085000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>313.59800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>621.45899999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1270000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4783.8739999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1170.1369999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0009999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>364.565</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000">
+                  <c:v>2187.9659999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>664.31499999999994</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>366.97800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>58.033999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>197.48399999999998</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>30.114999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>1256.239</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>401.84399999999999</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>8212.1419999999998</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>68.527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>6393.0039999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>363.53200000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$14:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5  cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$14:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4606</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1565</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1169</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8048</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$15:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5  gpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$15:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4632</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1558</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$A$16:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 matlab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet8 (2)'!$C$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> toRGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> background</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> RBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> invert</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> open19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> reconToNuclei</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> threshold1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> fillHoles1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> areaThreshold1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> blobsGt45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> fillHoles2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> openBlobs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 30To1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> dilate</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> distTransform</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> imhmin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> watershed</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> water to mask</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 20To1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> fillHolesLast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet8 (2)'!$C$16:$V$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>40.667999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>311.24900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>647.82499999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5080000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4754.3509999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1274.454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>351.72700000000003</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000">
+                  <c:v>868.79399999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>468.66899999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>345.55500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>42.253999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>94.076000000000008</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>16.660999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>1317.0539999999999</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>413.40600000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>6396.8590000000004</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>88.793999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>1552.325</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>362.97800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="58556800"/>
+        <c:axId val="58558336"/>
+        <c:axId val="107083520"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="58556800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58558336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58558336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58556800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="107083520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58558336"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33625080104310096"/>
+          <c:y val="0.11941664350779681"/>
+          <c:w val="0.16630090457065147"/>
+          <c:h val="0.21057835417631618"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1051,6 +3515,1125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:V6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>147</v>
+      </c>
+      <c r="E2">
+        <v>526</v>
+      </c>
+      <c r="F2">
+        <v>62</v>
+      </c>
+      <c r="G2">
+        <v>573</v>
+      </c>
+      <c r="H2">
+        <v>1042</v>
+      </c>
+      <c r="I2">
+        <v>47</v>
+      </c>
+      <c r="J2">
+        <v>527</v>
+      </c>
+      <c r="K2">
+        <v>414</v>
+      </c>
+      <c r="L2">
+        <v>150</v>
+      </c>
+      <c r="M2">
+        <v>512</v>
+      </c>
+      <c r="N2">
+        <v>45</v>
+      </c>
+      <c r="O2">
+        <v>214</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>1163</v>
+      </c>
+      <c r="R2">
+        <v>629</v>
+      </c>
+      <c r="S2">
+        <v>1615</v>
+      </c>
+      <c r="T2">
+        <v>61</v>
+      </c>
+      <c r="U2">
+        <v>215</v>
+      </c>
+      <c r="V2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>82</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>471</v>
+      </c>
+      <c r="H3">
+        <v>804</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>118</v>
+      </c>
+      <c r="K3">
+        <v>422</v>
+      </c>
+      <c r="L3">
+        <v>101</v>
+      </c>
+      <c r="M3">
+        <v>153</v>
+      </c>
+      <c r="N3">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>250</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>1053</v>
+      </c>
+      <c r="R3">
+        <v>156</v>
+      </c>
+      <c r="S3">
+        <v>150</v>
+      </c>
+      <c r="T3">
+        <v>16</v>
+      </c>
+      <c r="U3">
+        <v>190</v>
+      </c>
+      <c r="V3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>57.222000000000001</v>
+      </c>
+      <c r="D4">
+        <v>439.81700000000001</v>
+      </c>
+      <c r="E4">
+        <v>1032.5889999999999</v>
+      </c>
+      <c r="F4">
+        <v>7.7290000000000001</v>
+      </c>
+      <c r="G4">
+        <v>5132.6559999999999</v>
+      </c>
+      <c r="H4">
+        <v>2268.9089999999997</v>
+      </c>
+      <c r="I4">
+        <v>16.027000000000001</v>
+      </c>
+      <c r="J4">
+        <v>364.39700000000005</v>
+      </c>
+      <c r="K4" s="1">
+        <v>610.32399999999996</v>
+      </c>
+      <c r="L4" s="1">
+        <v>392.37200000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>367.21899999999999</v>
+      </c>
+      <c r="N4" s="1">
+        <v>80.388999999999996</v>
+      </c>
+      <c r="O4" s="1">
+        <v>77.293999999999997</v>
+      </c>
+      <c r="P4" s="1">
+        <v>33.677999999999997</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1314.106</v>
+      </c>
+      <c r="R4" s="1">
+        <v>424.50300000000004</v>
+      </c>
+      <c r="S4" s="1">
+        <v>5455.2020000000002</v>
+      </c>
+      <c r="T4" s="1">
+        <v>85.402000000000001</v>
+      </c>
+      <c r="U4" s="1">
+        <v>393.38099999999997</v>
+      </c>
+      <c r="V4" s="1">
+        <v>363.755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>135</v>
+      </c>
+      <c r="E5">
+        <v>478</v>
+      </c>
+      <c r="F5">
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <v>566</v>
+      </c>
+      <c r="H5">
+        <v>851</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>514</v>
+      </c>
+      <c r="K5">
+        <v>2429</v>
+      </c>
+      <c r="L5">
+        <v>160</v>
+      </c>
+      <c r="M5">
+        <v>511</v>
+      </c>
+      <c r="N5">
+        <v>45</v>
+      </c>
+      <c r="O5">
+        <v>1370</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>1163</v>
+      </c>
+      <c r="R5">
+        <v>595</v>
+      </c>
+      <c r="S5">
+        <v>6776</v>
+      </c>
+      <c r="T5">
+        <v>61</v>
+      </c>
+      <c r="U5">
+        <v>1536</v>
+      </c>
+      <c r="V5">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>471</v>
+      </c>
+      <c r="H6">
+        <v>323</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>172</v>
+      </c>
+      <c r="K6">
+        <v>2423</v>
+      </c>
+      <c r="L6">
+        <v>82</v>
+      </c>
+      <c r="M6">
+        <v>207</v>
+      </c>
+      <c r="N6">
+        <v>18</v>
+      </c>
+      <c r="O6">
+        <v>1562</v>
+      </c>
+      <c r="P6">
+        <v>14</v>
+      </c>
+      <c r="Q6">
+        <v>1065</v>
+      </c>
+      <c r="R6">
+        <v>184</v>
+      </c>
+      <c r="S6">
+        <v>151</v>
+      </c>
+      <c r="T6">
+        <v>15</v>
+      </c>
+      <c r="U6">
+        <v>1303</v>
+      </c>
+      <c r="V6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>40.241</v>
+      </c>
+      <c r="D7">
+        <v>327.68599999999998</v>
+      </c>
+      <c r="E7">
+        <v>661.548</v>
+      </c>
+      <c r="F7">
+        <v>7.9019999999999992</v>
+      </c>
+      <c r="G7">
+        <v>4807.2999999999993</v>
+      </c>
+      <c r="H7">
+        <v>1126.0260000000001</v>
+      </c>
+      <c r="I7">
+        <v>16.108999999999998</v>
+      </c>
+      <c r="J7">
+        <v>361.21100000000001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>757.71</v>
+      </c>
+      <c r="L7" s="1">
+        <v>518.68099999999993</v>
+      </c>
+      <c r="M7" s="1">
+        <v>354.24599999999998</v>
+      </c>
+      <c r="N7" s="1">
+        <v>50.893000000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <v>97.480999999999995</v>
+      </c>
+      <c r="P7" s="1">
+        <v>22.540999999999997</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1271.1969999999999</v>
+      </c>
+      <c r="R7" s="1">
+        <v>401.6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>6202.5870000000004</v>
+      </c>
+      <c r="T7" s="1">
+        <v>81.626000000000005</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1146.308</v>
+      </c>
+      <c r="V7" s="1">
+        <v>349.12599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>134</v>
+      </c>
+      <c r="E8">
+        <v>483</v>
+      </c>
+      <c r="F8">
+        <v>61</v>
+      </c>
+      <c r="G8">
+        <v>566</v>
+      </c>
+      <c r="H8">
+        <v>2434</v>
+      </c>
+      <c r="I8">
+        <v>41</v>
+      </c>
+      <c r="J8">
+        <v>526</v>
+      </c>
+      <c r="K8">
+        <v>1196</v>
+      </c>
+      <c r="L8">
+        <v>143</v>
+      </c>
+      <c r="M8">
+        <v>522</v>
+      </c>
+      <c r="N8">
+        <v>46</v>
+      </c>
+      <c r="O8">
+        <v>468</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>1149</v>
+      </c>
+      <c r="R8">
+        <v>595</v>
+      </c>
+      <c r="S8">
+        <v>2292</v>
+      </c>
+      <c r="T8">
+        <v>60</v>
+      </c>
+      <c r="U8">
+        <v>437</v>
+      </c>
+      <c r="V8">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>119</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>470</v>
+      </c>
+      <c r="H9">
+        <v>1177</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>153</v>
+      </c>
+      <c r="K9">
+        <v>1204</v>
+      </c>
+      <c r="L9">
+        <v>101</v>
+      </c>
+      <c r="M9">
+        <v>135</v>
+      </c>
+      <c r="N9">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>518</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+      <c r="Q9">
+        <v>1048</v>
+      </c>
+      <c r="R9">
+        <v>156</v>
+      </c>
+      <c r="S9">
+        <v>126</v>
+      </c>
+      <c r="T9">
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <v>278</v>
+      </c>
+      <c r="V9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>40.710999999999999</v>
+      </c>
+      <c r="D10">
+        <v>277.20600000000002</v>
+      </c>
+      <c r="E10">
+        <v>608</v>
+      </c>
+      <c r="F10">
+        <v>8.2720000000000002</v>
+      </c>
+      <c r="G10">
+        <v>4724.5129999999999</v>
+      </c>
+      <c r="H10">
+        <v>3024.645</v>
+      </c>
+      <c r="I10">
+        <v>7.9089999999999989</v>
+      </c>
+      <c r="J10">
+        <v>331.904</v>
+      </c>
+      <c r="K10" s="1">
+        <v>516.51400000000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>359.94799999999998</v>
+      </c>
+      <c r="M10" s="1">
+        <v>357.80899999999997</v>
+      </c>
+      <c r="N10" s="1">
+        <v>43.007999999999996</v>
+      </c>
+      <c r="O10" s="1">
+        <v>56.408000000000001</v>
+      </c>
+      <c r="P10" s="1">
+        <v>19.567999999999998</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1244.23</v>
+      </c>
+      <c r="R10" s="1">
+        <v>392.44299999999998</v>
+      </c>
+      <c r="S10" s="1">
+        <v>5553.1790000000001</v>
+      </c>
+      <c r="T10" s="1">
+        <v>63.937999999999995</v>
+      </c>
+      <c r="U10" s="1">
+        <v>480.32900000000001</v>
+      </c>
+      <c r="V10" s="1">
+        <v>351.37800000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>135</v>
+      </c>
+      <c r="E11">
+        <v>479</v>
+      </c>
+      <c r="F11">
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>567</v>
+      </c>
+      <c r="H11">
+        <v>945</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>525</v>
+      </c>
+      <c r="K11">
+        <v>12313</v>
+      </c>
+      <c r="L11">
+        <v>236</v>
+      </c>
+      <c r="M11">
+        <v>508</v>
+      </c>
+      <c r="N11">
+        <v>46</v>
+      </c>
+      <c r="O11">
+        <v>4806</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>1198</v>
+      </c>
+      <c r="R11">
+        <v>597</v>
+      </c>
+      <c r="S11">
+        <v>26556</v>
+      </c>
+      <c r="T11">
+        <v>67</v>
+      </c>
+      <c r="U11">
+        <v>5740</v>
+      </c>
+      <c r="V11">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>471</v>
+      </c>
+      <c r="H12">
+        <v>537</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>207</v>
+      </c>
+      <c r="K12">
+        <v>12210</v>
+      </c>
+      <c r="L12">
+        <v>139</v>
+      </c>
+      <c r="M12">
+        <v>297</v>
+      </c>
+      <c r="N12">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <v>6250</v>
+      </c>
+      <c r="P12">
+        <v>14</v>
+      </c>
+      <c r="Q12">
+        <v>1082</v>
+      </c>
+      <c r="R12">
+        <v>213</v>
+      </c>
+      <c r="S12">
+        <v>164</v>
+      </c>
+      <c r="T12">
+        <v>15</v>
+      </c>
+      <c r="U12">
+        <v>5525</v>
+      </c>
+      <c r="V12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>40.085000000000001</v>
+      </c>
+      <c r="D13">
+        <v>313.59800000000001</v>
+      </c>
+      <c r="E13">
+        <v>621.45899999999995</v>
+      </c>
+      <c r="F13">
+        <v>8.1270000000000007</v>
+      </c>
+      <c r="G13">
+        <v>4783.8739999999998</v>
+      </c>
+      <c r="H13">
+        <v>1170.1369999999999</v>
+      </c>
+      <c r="I13">
+        <v>8.0009999999999994</v>
+      </c>
+      <c r="J13">
+        <v>364.565</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2187.9659999999999</v>
+      </c>
+      <c r="L13" s="1">
+        <v>664.31499999999994</v>
+      </c>
+      <c r="M13" s="1">
+        <v>366.97800000000001</v>
+      </c>
+      <c r="N13" s="1">
+        <v>58.033999999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <v>197.48399999999998</v>
+      </c>
+      <c r="P13" s="1">
+        <v>30.114999999999998</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1256.239</v>
+      </c>
+      <c r="R13" s="1">
+        <v>401.84399999999999</v>
+      </c>
+      <c r="S13" s="1">
+        <v>8212.1419999999998</v>
+      </c>
+      <c r="T13" s="1">
+        <v>68.527000000000001</v>
+      </c>
+      <c r="U13" s="1">
+        <v>6393.0039999999999</v>
+      </c>
+      <c r="V13" s="1">
+        <v>363.53200000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>480</v>
+      </c>
+      <c r="F14">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>566</v>
+      </c>
+      <c r="H14">
+        <v>1052</v>
+      </c>
+      <c r="I14">
+        <v>41</v>
+      </c>
+      <c r="J14">
+        <v>525</v>
+      </c>
+      <c r="K14">
+        <v>4606</v>
+      </c>
+      <c r="L14">
+        <v>183</v>
+      </c>
+      <c r="M14">
+        <v>516</v>
+      </c>
+      <c r="N14">
+        <v>44</v>
+      </c>
+      <c r="O14">
+        <v>1565</v>
+      </c>
+      <c r="P14">
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <v>1169</v>
+      </c>
+      <c r="R14">
+        <v>595</v>
+      </c>
+      <c r="S14">
+        <v>8048</v>
+      </c>
+      <c r="T14">
+        <v>62</v>
+      </c>
+      <c r="U14">
+        <v>1834</v>
+      </c>
+      <c r="V14">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>119</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>471</v>
+      </c>
+      <c r="H15">
+        <v>625</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>172</v>
+      </c>
+      <c r="K15">
+        <v>4632</v>
+      </c>
+      <c r="L15">
+        <v>102</v>
+      </c>
+      <c r="M15">
+        <v>207</v>
+      </c>
+      <c r="N15">
+        <v>18</v>
+      </c>
+      <c r="O15">
+        <v>2066</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <v>1060</v>
+      </c>
+      <c r="R15">
+        <v>185</v>
+      </c>
+      <c r="S15">
+        <v>152</v>
+      </c>
+      <c r="T15">
+        <v>15</v>
+      </c>
+      <c r="U15">
+        <v>1558</v>
+      </c>
+      <c r="V15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>40.667999999999999</v>
+      </c>
+      <c r="D16">
+        <v>311.24900000000002</v>
+      </c>
+      <c r="E16">
+        <v>647.82499999999993</v>
+      </c>
+      <c r="F16">
+        <v>9.5080000000000009</v>
+      </c>
+      <c r="G16">
+        <v>4754.3509999999997</v>
+      </c>
+      <c r="H16">
+        <v>1274.454</v>
+      </c>
+      <c r="I16">
+        <v>16.497</v>
+      </c>
+      <c r="J16">
+        <v>351.72700000000003</v>
+      </c>
+      <c r="K16" s="1">
+        <v>868.79399999999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>468.66899999999998</v>
+      </c>
+      <c r="M16" s="1">
+        <v>345.55500000000001</v>
+      </c>
+      <c r="N16" s="1">
+        <v>42.253999999999998</v>
+      </c>
+      <c r="O16" s="1">
+        <v>94.076000000000008</v>
+      </c>
+      <c r="P16" s="1">
+        <v>16.660999999999998</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1317.0539999999999</v>
+      </c>
+      <c r="R16" s="1">
+        <v>413.40600000000001</v>
+      </c>
+      <c r="S16" s="1">
+        <v>6396.8590000000004</v>
+      </c>
+      <c r="T16" s="1">
+        <v>88.793999999999997</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1552.325</v>
+      </c>
+      <c r="V16" s="1">
+        <v>362.97800000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:V18">
+    <sortCondition ref="A2:A18"/>
+    <sortCondition ref="B2:B18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1455,7 +5038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD6"/>
   <sheetViews>
@@ -2022,15 +5605,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF6" sqref="A1:AF6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2236,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2251,31 +5838,31 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>8.3809999999999996E-2</v>
+        <v>1.2329800000000001E-3</v>
       </c>
       <c r="H3">
         <v>8</v>
       </c>
       <c r="I3">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="J3">
-        <v>480</v>
+        <v>367</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>471</v>
       </c>
       <c r="M3">
-        <v>536</v>
+        <v>323</v>
       </c>
       <c r="N3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O3">
-        <v>16620087</v>
+        <v>16619897</v>
       </c>
       <c r="P3">
         <v>5</v>
@@ -2284,46 +5871,46 @@
         <v>1</v>
       </c>
       <c r="R3">
+        <v>171</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>2423</v>
+      </c>
+      <c r="U3">
+        <v>82</v>
+      </c>
+      <c r="V3">
         <v>207</v>
-      </c>
-      <c r="S3">
-        <v>10</v>
-      </c>
-      <c r="T3">
-        <v>12210</v>
-      </c>
-      <c r="U3">
-        <v>139</v>
-      </c>
-      <c r="V3">
-        <v>297</v>
       </c>
       <c r="W3">
         <v>18</v>
       </c>
       <c r="X3">
-        <v>6250</v>
+        <v>1562</v>
       </c>
       <c r="Y3">
         <v>14</v>
       </c>
       <c r="Z3">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="AA3">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="AB3">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="AC3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE3">
-        <v>5525</v>
+        <v>1303</v>
       </c>
       <c r="AF3">
         <v>82</v>
@@ -2432,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -2447,31 +6034,31 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>1.2329800000000001E-3</v>
+        <v>8.3809999999999996E-2</v>
       </c>
       <c r="H5">
         <v>8</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J5">
-        <v>367</v>
+        <v>480</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <v>471</v>
       </c>
       <c r="M5">
-        <v>323</v>
+        <v>536</v>
       </c>
       <c r="N5">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="O5">
-        <v>16619897</v>
+        <v>16620087</v>
       </c>
       <c r="P5">
         <v>5</v>
@@ -2480,46 +6067,46 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="S5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>2423</v>
+        <v>12210</v>
       </c>
       <c r="U5">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="V5">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="W5">
         <v>18</v>
       </c>
       <c r="X5">
-        <v>1562</v>
+        <v>6250</v>
       </c>
       <c r="Y5">
         <v>14</v>
       </c>
       <c r="Z5">
-        <v>1065</v>
+        <v>1082</v>
       </c>
       <c r="AA5">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="AB5">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="AC5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE5">
-        <v>1303</v>
+        <v>5525</v>
       </c>
       <c r="AF5">
         <v>82</v>
@@ -2628,12 +6215,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="A1:J6"/>
+      <selection activeCell="K1" sqref="K1:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3220,12 +6807,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K1" sqref="K1:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,15 +7329,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:M13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3918,7 +7508,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -3933,16 +7523,16 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>471</v>
       </c>
       <c r="I3">
-        <v>536</v>
+        <v>323</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -3951,53 +7541,53 @@
         <v>1</v>
       </c>
       <c r="L3">
+        <v>171</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>2423</v>
+      </c>
+      <c r="O3">
+        <v>82</v>
+      </c>
+      <c r="P3">
         <v>207</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-      <c r="N3">
-        <v>12210</v>
-      </c>
-      <c r="O3">
-        <v>139</v>
-      </c>
-      <c r="P3">
-        <v>297</v>
       </c>
       <c r="Q3">
         <v>18</v>
       </c>
       <c r="R3">
-        <v>6250</v>
+        <v>1562</v>
       </c>
       <c r="S3">
         <v>14</v>
       </c>
       <c r="T3">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="U3">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="V3">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3">
-        <v>5525</v>
+        <v>1303</v>
       </c>
       <c r="Z3">
         <v>82</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA6" si="0">SUM(C3:Z3)</f>
-        <v>27343</v>
+        <f>SUM(C3:Z3)</f>
+        <v>8208</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -4080,13 +7670,13 @@
         <v>82</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AA4:AA6" si="0">SUM(C4:Z4)</f>
         <v>5657</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -4101,16 +7691,16 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>471</v>
       </c>
       <c r="I5">
-        <v>323</v>
+        <v>536</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -4119,53 +7709,53 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>2423</v>
+        <v>12210</v>
       </c>
       <c r="O5">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="P5">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="Q5">
         <v>18</v>
       </c>
       <c r="R5">
-        <v>1562</v>
+        <v>6250</v>
       </c>
       <c r="S5">
         <v>14</v>
       </c>
       <c r="T5">
-        <v>1065</v>
+        <v>1082</v>
       </c>
       <c r="U5">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="V5">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="W5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5">
-        <v>1303</v>
+        <v>5525</v>
       </c>
       <c r="Z5">
         <v>82</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>8208</v>
+        <f>SUM(C5:Z5)</f>
+        <v>27343</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -4265,19 +7855,19 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M10">
-        <f t="shared" ref="M10:M13" si="1">SUM(C3:M3)</f>
+        <f>SUM(C5:M5)</f>
         <v>1334</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M11:M13" si="1">SUM(C4:M4)</f>
         <v>1961</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f>SUM(C3:M3)</f>
         <v>1102</v>
       </c>
     </row>
@@ -4292,12 +7882,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4503,17 +8093,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -4559,8 +8157,47 @@
       <c r="O1" t="s">
         <v>28</v>
       </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4606,8 +8243,47 @@
       <c r="O2">
         <v>2</v>
       </c>
+      <c r="P2">
+        <v>422</v>
+      </c>
+      <c r="Q2">
+        <v>101</v>
+      </c>
+      <c r="R2">
+        <v>153</v>
+      </c>
+      <c r="S2">
+        <v>19</v>
+      </c>
+      <c r="T2">
+        <v>250</v>
+      </c>
+      <c r="U2">
+        <v>15</v>
+      </c>
+      <c r="V2">
+        <v>1053</v>
+      </c>
+      <c r="W2">
+        <v>156</v>
+      </c>
+      <c r="X2">
+        <v>150</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <v>11</v>
+      </c>
+      <c r="AA2">
+        <v>190</v>
+      </c>
+      <c r="AB2">
+        <v>82</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4653,8 +8329,47 @@
       <c r="O3">
         <v>1</v>
       </c>
+      <c r="P3">
+        <v>2423</v>
+      </c>
+      <c r="Q3">
+        <v>82</v>
+      </c>
+      <c r="R3">
+        <v>207</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>1562</v>
+      </c>
+      <c r="U3">
+        <v>14</v>
+      </c>
+      <c r="V3">
+        <v>1065</v>
+      </c>
+      <c r="W3">
+        <v>184</v>
+      </c>
+      <c r="X3">
+        <v>151</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <v>1303</v>
+      </c>
+      <c r="AB3">
+        <v>82</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4700,8 +8415,47 @@
       <c r="O4">
         <v>1</v>
       </c>
+      <c r="P4">
+        <v>1204</v>
+      </c>
+      <c r="Q4">
+        <v>101</v>
+      </c>
+      <c r="R4">
+        <v>135</v>
+      </c>
+      <c r="S4">
+        <v>19</v>
+      </c>
+      <c r="T4">
+        <v>518</v>
+      </c>
+      <c r="U4">
+        <v>14</v>
+      </c>
+      <c r="V4">
+        <v>1048</v>
+      </c>
+      <c r="W4">
+        <v>156</v>
+      </c>
+      <c r="X4">
+        <v>126</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>11</v>
+      </c>
+      <c r="AA4">
+        <v>278</v>
+      </c>
+      <c r="AB4">
+        <v>82</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4747,8 +8501,47 @@
       <c r="O5">
         <v>1</v>
       </c>
+      <c r="P5">
+        <v>12210</v>
+      </c>
+      <c r="Q5">
+        <v>139</v>
+      </c>
+      <c r="R5">
+        <v>297</v>
+      </c>
+      <c r="S5">
+        <v>18</v>
+      </c>
+      <c r="T5">
+        <v>6250</v>
+      </c>
+      <c r="U5">
+        <v>14</v>
+      </c>
+      <c r="V5">
+        <v>1082</v>
+      </c>
+      <c r="W5">
+        <v>213</v>
+      </c>
+      <c r="X5">
+        <v>164</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>11</v>
+      </c>
+      <c r="AA5">
+        <v>5525</v>
+      </c>
+      <c r="AB5">
+        <v>82</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4794,8 +8587,91 @@
       <c r="O6">
         <v>1</v>
       </c>
+      <c r="P6">
+        <v>4632</v>
+      </c>
+      <c r="Q6">
+        <v>102</v>
+      </c>
+      <c r="R6">
+        <v>207</v>
+      </c>
+      <c r="S6">
+        <v>18</v>
+      </c>
+      <c r="T6">
+        <v>2066</v>
+      </c>
+      <c r="U6">
+        <v>14</v>
+      </c>
+      <c r="V6">
+        <v>1060</v>
+      </c>
+      <c r="W6">
+        <v>185</v>
+      </c>
+      <c r="X6">
+        <v>152</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>11</v>
+      </c>
+      <c r="AA6">
+        <v>1558</v>
+      </c>
+      <c r="AB6">
+        <v>103</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4826,8 +8702,50 @@
       <c r="M8">
         <v>527</v>
       </c>
+      <c r="P8">
+        <v>414</v>
+      </c>
+      <c r="Q8">
+        <v>150</v>
+      </c>
+      <c r="R8">
+        <v>512</v>
+      </c>
+      <c r="S8">
+        <v>45</v>
+      </c>
+      <c r="T8">
+        <v>214</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>1163</v>
+      </c>
+      <c r="W8">
+        <v>629</v>
+      </c>
+      <c r="X8">
+        <v>30</v>
+      </c>
+      <c r="Y8">
+        <v>1615</v>
+      </c>
+      <c r="Z8">
+        <v>44</v>
+      </c>
+      <c r="AA8">
+        <v>17</v>
+      </c>
+      <c r="AB8">
+        <v>215</v>
+      </c>
+      <c r="AC8">
+        <v>587</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4858,8 +8776,50 @@
       <c r="M9">
         <v>514</v>
       </c>
+      <c r="P9">
+        <v>2429</v>
+      </c>
+      <c r="Q9">
+        <v>160</v>
+      </c>
+      <c r="R9">
+        <v>511</v>
+      </c>
+      <c r="S9">
+        <v>45</v>
+      </c>
+      <c r="T9">
+        <v>1370</v>
+      </c>
+      <c r="U9">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>1163</v>
+      </c>
+      <c r="W9">
+        <v>595</v>
+      </c>
+      <c r="X9">
+        <v>34</v>
+      </c>
+      <c r="Y9">
+        <v>6776</v>
+      </c>
+      <c r="Z9">
+        <v>45</v>
+      </c>
+      <c r="AA9">
+        <v>16</v>
+      </c>
+      <c r="AB9">
+        <v>1536</v>
+      </c>
+      <c r="AC9">
+        <v>578</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4890,8 +8850,50 @@
       <c r="M10">
         <v>526</v>
       </c>
+      <c r="P10">
+        <v>1196</v>
+      </c>
+      <c r="Q10">
+        <v>143</v>
+      </c>
+      <c r="R10">
+        <v>522</v>
+      </c>
+      <c r="S10">
+        <v>46</v>
+      </c>
+      <c r="T10">
+        <v>468</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>1149</v>
+      </c>
+      <c r="W10">
+        <v>595</v>
+      </c>
+      <c r="X10">
+        <v>31</v>
+      </c>
+      <c r="Y10">
+        <v>2292</v>
+      </c>
+      <c r="Z10">
+        <v>43</v>
+      </c>
+      <c r="AA10">
+        <v>17</v>
+      </c>
+      <c r="AB10">
+        <v>437</v>
+      </c>
+      <c r="AC10">
+        <v>596</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -4922,8 +8924,50 @@
       <c r="M11">
         <v>525</v>
       </c>
+      <c r="P11">
+        <v>12313</v>
+      </c>
+      <c r="Q11">
+        <v>236</v>
+      </c>
+      <c r="R11">
+        <v>508</v>
+      </c>
+      <c r="S11">
+        <v>46</v>
+      </c>
+      <c r="T11">
+        <v>4806</v>
+      </c>
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <v>1198</v>
+      </c>
+      <c r="W11">
+        <v>597</v>
+      </c>
+      <c r="X11">
+        <v>39</v>
+      </c>
+      <c r="Y11">
+        <v>26556</v>
+      </c>
+      <c r="Z11">
+        <v>50</v>
+      </c>
+      <c r="AA11">
+        <v>17</v>
+      </c>
+      <c r="AB11">
+        <v>5740</v>
+      </c>
+      <c r="AC11">
+        <v>576</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4954,8 +8998,88 @@
       <c r="M12">
         <v>525</v>
       </c>
+      <c r="P12">
+        <v>4606</v>
+      </c>
+      <c r="Q12">
+        <v>183</v>
+      </c>
+      <c r="R12">
+        <v>516</v>
+      </c>
+      <c r="S12">
+        <v>44</v>
+      </c>
+      <c r="T12">
+        <v>1565</v>
+      </c>
+      <c r="U12">
+        <v>8</v>
+      </c>
+      <c r="V12">
+        <v>1169</v>
+      </c>
+      <c r="W12">
+        <v>595</v>
+      </c>
+      <c r="X12">
+        <v>35</v>
+      </c>
+      <c r="Y12">
+        <v>8048</v>
+      </c>
+      <c r="Z12">
+        <v>45</v>
+      </c>
+      <c r="AA12">
+        <v>17</v>
+      </c>
+      <c r="AB12">
+        <v>1834</v>
+      </c>
+      <c r="AC12">
+        <v>585</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4986,8 +9110,44 @@
       <c r="M14">
         <v>364.39700000000005</v>
       </c>
+      <c r="P14" s="1">
+        <v>610.32399999999996</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>392.37200000000001</v>
+      </c>
+      <c r="R14" s="1">
+        <v>367.21899999999999</v>
+      </c>
+      <c r="S14" s="1">
+        <v>80.388999999999996</v>
+      </c>
+      <c r="T14" s="1">
+        <v>77.293999999999997</v>
+      </c>
+      <c r="U14" s="1">
+        <v>33.677999999999997</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1314.106</v>
+      </c>
+      <c r="W14" s="1">
+        <v>424.50300000000004</v>
+      </c>
+      <c r="X14" s="1">
+        <v>5455.2020000000002</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>85.402000000000001</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>393.38099999999997</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>363.755</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5018,8 +9178,44 @@
       <c r="M15">
         <v>361.21100000000001</v>
       </c>
+      <c r="P15" s="1">
+        <v>757.71</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>518.68099999999993</v>
+      </c>
+      <c r="R15" s="1">
+        <v>354.24599999999998</v>
+      </c>
+      <c r="S15" s="1">
+        <v>50.893000000000001</v>
+      </c>
+      <c r="T15" s="1">
+        <v>97.480999999999995</v>
+      </c>
+      <c r="U15" s="1">
+        <v>22.540999999999997</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1271.1969999999999</v>
+      </c>
+      <c r="W15" s="1">
+        <v>401.6</v>
+      </c>
+      <c r="X15" s="1">
+        <v>6202.5870000000004</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>81.626000000000005</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1146.308</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>349.12599999999998</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5050,8 +9246,44 @@
       <c r="M16">
         <v>331.904</v>
       </c>
+      <c r="P16" s="1">
+        <v>516.51400000000001</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>359.94799999999998</v>
+      </c>
+      <c r="R16" s="1">
+        <v>357.80899999999997</v>
+      </c>
+      <c r="S16" s="1">
+        <v>43.007999999999996</v>
+      </c>
+      <c r="T16" s="1">
+        <v>56.408000000000001</v>
+      </c>
+      <c r="U16" s="1">
+        <v>19.567999999999998</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1244.23</v>
+      </c>
+      <c r="W16" s="1">
+        <v>392.44299999999998</v>
+      </c>
+      <c r="X16" s="1">
+        <v>5553.1790000000001</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>63.937999999999995</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>480.32900000000001</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>351.37800000000004</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5082,8 +9314,44 @@
       <c r="M17">
         <v>364.565</v>
       </c>
+      <c r="P17" s="1">
+        <v>2187.9659999999999</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>664.31499999999994</v>
+      </c>
+      <c r="R17" s="1">
+        <v>366.97800000000001</v>
+      </c>
+      <c r="S17" s="1">
+        <v>58.033999999999999</v>
+      </c>
+      <c r="T17" s="1">
+        <v>197.48399999999998</v>
+      </c>
+      <c r="U17" s="1">
+        <v>30.114999999999998</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1256.239</v>
+      </c>
+      <c r="W17" s="1">
+        <v>401.84399999999999</v>
+      </c>
+      <c r="X17" s="1">
+        <v>8212.1419999999998</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>68.527000000000001</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>6393.0039999999999</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>363.53200000000004</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -5113,6 +9381,42 @@
       </c>
       <c r="M18">
         <v>351.72700000000003</v>
+      </c>
+      <c r="P18" s="1">
+        <v>868.79399999999998</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>468.66899999999998</v>
+      </c>
+      <c r="R18" s="1">
+        <v>345.55500000000001</v>
+      </c>
+      <c r="S18" s="1">
+        <v>42.253999999999998</v>
+      </c>
+      <c r="T18" s="1">
+        <v>94.076000000000008</v>
+      </c>
+      <c r="U18" s="1">
+        <v>16.660999999999998</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1317.0539999999999</v>
+      </c>
+      <c r="W18" s="1">
+        <v>413.40600000000001</v>
+      </c>
+      <c r="X18" s="1">
+        <v>6396.8590000000004</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>88.793999999999997</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1552.325</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>362.97800000000001</v>
       </c>
     </row>
   </sheetData>

--- a/src/segment/results/matlab-gpu-cpu/matlab-gpu-cpu.xlsx
+++ b/src/segment/results/matlab-gpu-cpu/matlab-gpu-cpu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1200" windowWidth="17235" windowHeight="6945"/>
+    <workbookView xWindow="-15" yWindow="4290" windowWidth="19215" windowHeight="4335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet8 (2)" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="67">
   <si>
     <t>seg-gpu-timing</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>GPU new</t>
+  </si>
+  <si>
+    <t>from?</t>
   </si>
 </sst>
 </file>
@@ -801,8 +804,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4185685491972652E-2"/>
-          <c:y val="2.5258854407904891E-2"/>
+          <c:x val="6.459933040199145E-2"/>
+          <c:y val="2.9964736760846065E-2"/>
           <c:w val="0.88792587469676687"/>
           <c:h val="0.87574383202099737"/>
         </c:manualLayout>
@@ -3116,12 +3119,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="58556800"/>
-        <c:axId val="58558336"/>
-        <c:axId val="107083520"/>
+        <c:axId val="53827840"/>
+        <c:axId val="53833728"/>
+        <c:axId val="53822784"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58556800"/>
+        <c:axId val="53827840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58558336"/>
+        <c:crossAx val="53833728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3138,7 +3141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58558336"/>
+        <c:axId val="53833728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,12 +3152,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58556800"/>
+        <c:crossAx val="53827840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="107083520"/>
+        <c:axId val="53822784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,7 +3166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58558336"/>
+        <c:crossAx val="53833728"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3517,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:V6"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5043,10 +5046,14 @@
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5237,7 +5244,7 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -5249,76 +5256,76 @@
         <v>42</v>
       </c>
       <c r="F3">
-        <v>8.3809999999999996E-2</v>
+        <v>1.2329800000000001E-3</v>
       </c>
       <c r="G3">
         <v>135</v>
       </c>
       <c r="H3">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I3">
-        <v>453</v>
+        <v>348</v>
       </c>
       <c r="J3">
         <v>62</v>
       </c>
       <c r="K3">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L3">
-        <v>945</v>
+        <v>851</v>
       </c>
       <c r="M3">
-        <v>16775303</v>
+        <v>16775193</v>
       </c>
       <c r="N3">
         <v>40</v>
       </c>
       <c r="O3">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="P3">
-        <v>12313</v>
+        <v>2429</v>
       </c>
       <c r="Q3">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="R3">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="S3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T3">
-        <v>4806</v>
+        <v>1370</v>
       </c>
       <c r="U3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V3">
-        <v>1198</v>
+        <v>1163</v>
       </c>
       <c r="W3">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="X3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Y3">
-        <v>26556</v>
+        <v>6776</v>
       </c>
       <c r="Z3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB3">
-        <v>5740</v>
+        <v>1536</v>
       </c>
       <c r="AC3">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AD3" t="s">
         <v>3</v>
@@ -5421,7 +5428,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -5433,76 +5440,76 @@
         <v>42</v>
       </c>
       <c r="F5">
-        <v>1.2329800000000001E-3</v>
+        <v>8.3809999999999996E-2</v>
       </c>
       <c r="G5">
         <v>135</v>
       </c>
       <c r="H5">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I5">
-        <v>348</v>
+        <v>453</v>
       </c>
       <c r="J5">
         <v>62</v>
       </c>
       <c r="K5">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L5">
-        <v>851</v>
+        <v>945</v>
       </c>
       <c r="M5">
-        <v>16775193</v>
+        <v>16775303</v>
       </c>
       <c r="N5">
         <v>40</v>
       </c>
       <c r="O5">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="P5">
-        <v>2429</v>
+        <v>12313</v>
       </c>
       <c r="Q5">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="R5">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="S5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T5">
-        <v>1370</v>
+        <v>4806</v>
       </c>
       <c r="U5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V5">
-        <v>1163</v>
+        <v>1198</v>
       </c>
       <c r="W5">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="X5">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Y5">
-        <v>6776</v>
+        <v>26556</v>
       </c>
       <c r="Z5">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AA5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB5">
-        <v>1536</v>
+        <v>5740</v>
       </c>
       <c r="AC5">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AD5" t="s">
         <v>3</v>
@@ -5609,7 +5616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -6812,7 +6819,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:X6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7333,8 +7340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7884,10 +7891,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8088,6 +8095,14 @@
         <v>1425</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8097,7 +8112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5:AB5"/>
     </sheetView>
   </sheetViews>

--- a/src/segment/results/matlab-gpu-cpu/matlab-gpu-cpu.xlsx
+++ b/src/segment/results/matlab-gpu-cpu/matlab-gpu-cpu.xlsx
@@ -828,6 +828,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -981,6 +986,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1134,6 +1144,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1287,6 +1302,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1440,6 +1460,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1593,6 +1618,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1746,6 +1776,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1899,6 +1934,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2052,6 +2092,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2205,6 +2250,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2358,6 +2408,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2511,6 +2566,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2664,6 +2724,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2817,6 +2882,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2970,6 +3040,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -3119,12 +3194,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="53827840"/>
-        <c:axId val="53833728"/>
-        <c:axId val="53822784"/>
+        <c:axId val="101300096"/>
+        <c:axId val="101301632"/>
+        <c:axId val="101288128"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="53827840"/>
+        <c:axId val="101300096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3133,7 +3208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53833728"/>
+        <c:crossAx val="101301632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3141,7 +3216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53833728"/>
+        <c:axId val="101301632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3152,12 +3227,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53827840"/>
+        <c:crossAx val="101300096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="53822784"/>
+        <c:axId val="101288128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,7 +3241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53833728"/>
+        <c:crossAx val="101301632"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3520,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
